--- a/output/CodeSystem-tipos-matricula-codesystem.xlsx
+++ b/output/CodeSystem-tipos-matricula-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T16:20:05-03:00</t>
+    <t>2025-07-12T17:02:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-tipos-matricula-codesystem.xlsx
+++ b/output/CodeSystem-tipos-matricula-codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RecuperoTiposMatricula</t>
+    <t>RecuperoTiposMatriculaCS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T17:02:17-03:00</t>
+    <t>2025-07-14T12:58:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -858,7 +858,7 @@
     <t>75068822116585</t>
   </si>
   <si>
-    <t xml:space="preserve">Colegio de TRABAJADORES SOCIALES - ZARATE - CAMPANA, de ZÁRATE </t>
+    <t>Colegio de TRABAJADORES SOCIALES - ZARATE - CAMPANA, de ZÁRATE</t>
   </si>
   <si>
     <t>75100002124679</t>
@@ -1260,7 +1260,7 @@
     <t>75460142355627</t>
   </si>
   <si>
-    <t xml:space="preserve"> COLEGIO PROFESIONAL DE ENFERMERIA, de La Rioja</t>
+    <t>COLEGIO PROFESIONAL DE ENFERMERIA, de La Rioja</t>
   </si>
   <si>
     <t>75460002155493</t>

--- a/output/CodeSystem-tipos-matricula-codesystem.xlsx
+++ b/output/CodeSystem-tipos-matricula-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T12:58:17-03:00</t>
+    <t>2025-07-14T16:52:57-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
